--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="621">
   <si>
     <t>TCName</t>
   </si>
@@ -1751,27 +1751,6 @@
     <t>TC09_Verification of reduction in the number of records in pagination section of Deployment details screen</t>
   </si>
   <si>
-    <t xml:space="preserve">TC10_Verification of changing the items per page functionality in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC11_Verification of displaying the items per page by default i.e. 25 per page in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC12_Verification of displaying the total number of records with pagination icons in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC13_Verification of displaying the First page (Full Backward arrow) button in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC14_Verification of displaying the Last page (Full Forward arrow button in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC15_Verification of displaying the Next page (Forward arrow button in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC16_Verification of displaying the Previous page (Backward arrow button in the Deployment List screen by Super admin/Admin user </t>
-  </si>
-  <si>
     <t>TC17_Verification of the search functionality for Edge Name column (Valid Edge Name ) in the Deployment List screen by Super admin/Admin user</t>
   </si>
   <si>
@@ -1896,6 +1875,27 @@
   </si>
   <si>
     <t>TC01_Verification of Browser Compatibility</t>
+  </si>
+  <si>
+    <t>TC10_Verification of changing the items per page functionality in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC11_Verification of displaying the items per page by default i.e. 25 per page in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC12_Verification of displaying the total number of records with pagination icons in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC13_Verification of displaying the First page (Full Backward arrow) button in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC16_Verification of displaying the Previous page (Backward arrow button in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC15_Verification of displaying the Next page (Forward arrow button in the Deployment List screen by Super admin/Admin user</t>
+  </si>
+  <si>
+    <t>TC14_Verification of displaying the Last page (Full Forward arrow button in the Deployment List screen by Super admin/Admin user</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2306,6 +2306,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4055,11 +4061,11 @@
       </c>
       <c r="F43" s="24" t="str">
         <f ca="1">"ME" &amp; TEXT(NOW(),"yyyyMMddhhmmss")</f>
-        <v>ME20240118181820</v>
+        <v>ME20240119133006</v>
       </c>
       <c r="G43" s="24" t="str">
         <f ca="1">"ME" &amp; TEXT(NOW(),"yyyyMMddhhmmss")</f>
-        <v>ME20240118181820</v>
+        <v>ME20240119133006</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>71</v>
@@ -4084,7 +4090,7 @@
       </c>
       <c r="O43" s="3" t="str">
         <f ca="1">"Test" &amp; TEXT(NOW(),"yyyyMMddhhmmss")</f>
-        <v>Test20240118181820</v>
+        <v>Test20240119133006</v>
       </c>
       <c r="P43" s="3">
         <v>12.01</v>
@@ -8465,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8516,7 +8522,7 @@
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>515</v>
@@ -8644,7 +8650,7 @@
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="60" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -8735,10 +8741,13 @@
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F10" s="61" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>524</v>
@@ -8752,10 +8761,13 @@
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F11" s="61" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>525</v>
@@ -8769,10 +8781,13 @@
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F12" s="61" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="39" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>526</v>
@@ -8786,10 +8801,13 @@
       <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F13" s="61" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>527</v>
@@ -8803,10 +8821,13 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F14" s="61" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>576</v>
+        <v>620</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>528</v>
@@ -8820,10 +8841,13 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F15" s="61" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>529</v>
@@ -8837,10 +8861,13 @@
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="F16" s="61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>530</v>
@@ -8854,10 +8881,13 @@
       <c r="E17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="F17" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>531</v>
@@ -8872,9 +8902,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>532</v>
@@ -8889,9 +8919,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>533</v>
@@ -8906,9 +8936,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>534</v>
@@ -8923,9 +8953,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>535</v>
@@ -8940,9 +8970,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>536</v>
@@ -8957,9 +8987,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>537</v>
@@ -8974,9 +9004,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>538</v>
@@ -8991,9 +9021,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>539</v>
@@ -9008,9 +9038,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>540</v>
@@ -9025,9 +9055,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>541</v>
@@ -9042,9 +9072,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>542</v>
@@ -9059,9 +9089,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>543</v>
@@ -9076,9 +9106,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>544</v>
@@ -9093,9 +9123,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>545</v>
@@ -9112,7 +9142,7 @@
     </row>
     <row r="33" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>546</v>
@@ -9129,7 +9159,7 @@
     </row>
     <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>547</v>
@@ -9146,7 +9176,7 @@
     </row>
     <row r="35" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>548</v>
@@ -9163,7 +9193,7 @@
     </row>
     <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>549</v>
@@ -9180,7 +9210,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>550</v>
@@ -9197,7 +9227,7 @@
     </row>
     <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>551</v>
@@ -9214,7 +9244,7 @@
     </row>
     <row r="39" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>552</v>
@@ -9231,7 +9261,7 @@
     </row>
     <row r="40" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>553</v>
@@ -9248,7 +9278,7 @@
     </row>
     <row r="41" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>554</v>
@@ -9265,7 +9295,7 @@
     </row>
     <row r="42" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>555</v>
@@ -9282,7 +9312,7 @@
     </row>
     <row r="43" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>556</v>
@@ -9299,7 +9329,7 @@
     </row>
     <row r="44" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>557</v>
@@ -9316,7 +9346,7 @@
     </row>
     <row r="45" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>558</v>
@@ -9333,7 +9363,7 @@
     </row>
     <row r="46" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>559</v>
@@ -9350,7 +9380,7 @@
     </row>
     <row r="47" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>560</v>
@@ -9367,7 +9397,7 @@
     </row>
     <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>561</v>
@@ -9384,7 +9414,7 @@
     </row>
     <row r="49" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>523</v>
@@ -9401,7 +9431,7 @@
     </row>
     <row r="50" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>524</v>
@@ -9418,7 +9448,7 @@
     </row>
     <row r="51" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>525</v>
@@ -9435,7 +9465,7 @@
     </row>
     <row r="52" spans="1:5" ht="39" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>526</v>
@@ -9452,7 +9482,7 @@
     </row>
     <row r="53" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>527</v>
@@ -9469,7 +9499,7 @@
     </row>
     <row r="54" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>528</v>
@@ -9486,7 +9516,7 @@
     </row>
     <row r="55" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>529</v>
@@ -9503,7 +9533,7 @@
     </row>
     <row r="56" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>530</v>
@@ -9520,7 +9550,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>562</v>
@@ -9537,7 +9567,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>563</v>
@@ -9567,6 +9597,7 @@
     <hyperlink ref="E41" r:id="rId11"/>
     <hyperlink ref="D58" r:id="rId12"/>
     <hyperlink ref="E58" r:id="rId13"/>
+    <hyperlink ref="D5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
